--- a/FilterSetting/Sample_FilterSetting.xlsx
+++ b/FilterSetting/Sample_FilterSetting.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\CAE\ExcelVBA\ExcelVBAConvenientMacro\FilterSetting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C30302-1C41-4FE4-B30D-DFDE5445468E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4396F9-FC8A-46D9-BD3B-6B23D197B6D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フィルターテスト1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">フィルターテスト1!$B$2:$D$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">フィルターテスト1!$A$2:$C$16</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -116,9 +116,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -399,11 +402,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:D15"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -411,163 +414,185 @@
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="B4" s="1">
         <v>44020</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="B5" s="1">
         <v>44021</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B5">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="B6" s="1">
         <v>44022</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B6">
+    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="B7" s="1">
         <v>44023</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B7">
+    <row r="8" spans="1:3" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="B8" s="1">
         <v>44024</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B8">
+    <row r="9" spans="1:3" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="B9" s="1">
         <v>44025</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B9">
+    <row r="10" spans="1:3" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
+      <c r="B10" s="1">
         <v>44026</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B10">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A11">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
+      <c r="B11" s="1">
         <v>44027</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B11">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A12">
         <v>9</v>
       </c>
-      <c r="C11" s="1">
+      <c r="B12" s="1">
         <v>44028</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B12">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A13">
         <v>10</v>
       </c>
-      <c r="C12" s="1">
+      <c r="B13" s="1">
         <v>44029</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B13">
+    <row r="14" spans="1:3" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14">
         <v>11</v>
       </c>
-      <c r="C13" s="1">
+      <c r="B14" s="1">
         <v>44030</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B14">
+    <row r="15" spans="1:3" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15">
         <v>12</v>
       </c>
-      <c r="C14" s="1">
+      <c r="B15" s="1">
         <v>44031</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B15">
+    <row r="16" spans="1:3" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16">
         <v>13</v>
       </c>
-      <c r="C15" s="1">
+      <c r="B16" s="1">
         <v>44032</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C16" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:D15" xr:uid="{F2686958-A7D1-403E-8A7E-0EC3E59B8109}"/>
+  <autoFilter ref="A2:C16" xr:uid="{F2686958-A7D1-403E-8A7E-0EC3E59B8109}">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <filter val="2"/>
+        <filter val="4"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataConsolidate/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
